--- a/Exp3/Dados/boost/boost.xlsx
+++ b/Exp3/Dados/boost/boost.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Vo</t>
   </si>
   <si>
-    <t xml:space="preserve">Vo teórico</t>
+    <t xml:space="preserve">Curva teórica</t>
   </si>
 </sst>
 </file>
@@ -40,13 +40,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -65,16 +64,24 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -244,7 +251,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -272,15 +279,10 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -353,7 +355,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vo teórico</c:v>
+                  <c:v>Curva teórica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -370,15 +372,10 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -442,11 +439,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="32727184"/>
-        <c:axId val="96407171"/>
+        <c:axId val="7190630"/>
+        <c:axId val="55450679"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32727184"/>
+        <c:axId val="7190630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +487,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -519,12 +516,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96407171"/>
+        <c:crossAx val="55450679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96407171"/>
+        <c:axId val="55450679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +574,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -606,7 +603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32727184"/>
+        <c:crossAx val="7190630"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -647,16 +644,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>105480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -664,8 +661,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="600120" y="1521360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="2728080" y="659520"/>
+        <a:ext cx="5759280" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -686,7 +683,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
